--- a/pertemuan 2/TSLA_weekly.xlsx
+++ b/pertemuan 2/TSLA_weekly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc Helmi\Semester 5\MPDW\mpdw\pertemuan 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helmi Falah\Documents\MPDW\mpdw\pertemuan 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279615B4-B4BB-45C9-98B8-60BE2E1ADDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8AD516-C963-4B92-918F-BBE5C6138AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Periode</t>
+    <t>Tanggal</t>
   </si>
 </sst>
 </file>
@@ -410,12 +410,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40357</v>
       </c>
@@ -455,7 +455,7 @@
         <v>458185500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40364</v>
       </c>
@@ -475,7 +475,7 @@
         <v>383259000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>40371</v>
       </c>
@@ -495,7 +495,7 @@
         <v>231583500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40378</v>
       </c>
@@ -515,7 +515,7 @@
         <v>107635500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>40385</v>
       </c>
@@ -535,7 +535,7 @@
         <v>45780000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>40392</v>
       </c>
@@ -555,7 +555,7 @@
         <v>65995500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>40399</v>
       </c>
@@ -575,7 +575,7 @@
         <v>63249000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>40406</v>
       </c>
@@ -595,7 +595,7 @@
         <v>36151500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>40413</v>
       </c>
@@ -615,7 +615,7 @@
         <v>46168500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>40420</v>
       </c>
@@ -635,7 +635,7 @@
         <v>35257500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>40427</v>
       </c>
@@ -655,7 +655,7 @@
         <v>19419000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>40434</v>
       </c>
@@ -675,7 +675,7 @@
         <v>83746500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>40441</v>
       </c>
@@ -695,7 +695,7 @@
         <v>59301000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>40448</v>
       </c>
@@ -715,7 +715,7 @@
         <v>95938500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>40455</v>
       </c>
@@ -735,7 +735,7 @@
         <v>25467000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>40462</v>
       </c>
@@ -755,7 +755,7 @@
         <v>19693500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>40469</v>
       </c>
@@ -775,7 +775,7 @@
         <v>19480500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>40476</v>
       </c>
@@ -795,7 +795,7 @@
         <v>24610500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>40483</v>
       </c>
@@ -815,7 +815,7 @@
         <v>60538500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>40490</v>
       </c>
@@ -835,7 +835,7 @@
         <v>138012000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>40497</v>
       </c>
@@ -855,7 +855,7 @@
         <v>102406500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>40504</v>
       </c>
@@ -875,7 +875,7 @@
         <v>73246500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>40511</v>
       </c>
@@ -895,7 +895,7 @@
         <v>117517500</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>40518</v>
       </c>
@@ -915,7 +915,7 @@
         <v>61216500</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>40525</v>
       </c>
@@ -935,7 +935,7 @@
         <v>67831500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>40532</v>
       </c>
@@ -955,7 +955,7 @@
         <v>55305000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>40539</v>
       </c>
@@ -975,7 +975,7 @@
         <v>302046000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>40546</v>
       </c>
@@ -995,7 +995,7 @@
         <v>123393000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>40553</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>88993500</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>40560</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>112351500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>40567</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>89109000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>40574</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>47454000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>40581</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>127593000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>40588</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>170115000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>40595</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>91077000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>40602</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>75618000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>40609</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>94591500</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>40616</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>78975000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>40623</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>36714000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40630</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>261291000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>40637</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>177528000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>40644</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>87978000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>40651</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>57088500</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>40658</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>82857000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>40665</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>74148000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>40672</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>70555500</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>40679</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>93255000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>40686</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>167916000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>40693</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>180238500</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>40700</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>126283500</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>40707</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>122820000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>40714</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>139318500</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>40721</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>89430000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>40728</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>67371000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>40735</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>74328000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>40742</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>97819500</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>40749</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>64189500</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>40756</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>143065500</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>40763</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>110275500</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>40770</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>65278500</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>40777</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>59715000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>40784</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>54171000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>40791</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>36660000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>40798</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>61554000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>40805</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>78864000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>40812</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>68974500</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>40819</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>98005500</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>40826</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>75999000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>40833</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>70341000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>40840</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>63583500</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>40847</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>122806500</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>40854</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>120052500</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>40861</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>94530000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>40868</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>36834000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>40875</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>57984000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>40882</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>109972500</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>40889</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>69700500</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>40896</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>77049000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>40903</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>32710500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>40910</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>53250000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>40917</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>127062000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>40924</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>117306000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>40931</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>61249500</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>40938</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>56682000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>40945</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>81730500</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>40952</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>139903500</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>40959</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>68560500</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>40966</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>45111000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>40973</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>53886000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>40980</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>76759500</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>40987</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>58242000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>40994</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>124762500</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>41001</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>121768500</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>41008</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>94386000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>41015</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>69523500</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>41022</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>49407000</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>41029</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>54885000</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>41036</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>194710500</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>41043</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>104838000</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>41050</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>103416000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>41057</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>74425500</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>41064</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>59173500</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>41071</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>53521500</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>41078</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>157932000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>41085</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>107992500</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>41092</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>64513500</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>41099</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>71070000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>41106</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>152994000</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>41113</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>144969000</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>41120</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>116208000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>41127</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>99064500</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>41134</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>50491500</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>41141</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>84249000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>41148</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>71823000</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>41155</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>47800500</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>41162</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>99970500</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>41169</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>132483000</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>41176</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>219172500</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>41183</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>77191500</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>41190</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>60367500</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>41197</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>65766000</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>41204</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>49360500</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>41211</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>42444000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>41218</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>123366000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>41225</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>64773000</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>41232</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>55626000</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>41239</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>81832500</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>41246</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>80029500</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>41253</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>116107500</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>41260</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>91368000</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>41267</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>29286000</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>41274</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>48085500</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>41281</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>73645500</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>41288</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>133789500</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>41295</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>101140500</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>41302</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>95740500</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>41309</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>100017000</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>41316</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>142540500</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>41323</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>261127500</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>41330</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>166845000</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>41337</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>105976500</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>41344</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>134658000</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>41351</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>81361500</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>41358</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>99630000</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>41365</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>453175500</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>41372</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>181395000</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>41379</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>200398500</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>41386</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>250818000</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>41393</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>275013000</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>41400</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>1122228000</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>41407</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1756135500</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>41414</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>810915000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>41421</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>1141456500</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>41428</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>906645000</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>41435</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>575124000</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>41442</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>693982500</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>41449</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>510969000</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>41456</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>518896500</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>41463</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>612678000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>41470</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>1284175500</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>41477</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>589809000</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>41484</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>611266500</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>41491</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>1107628500</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>41498</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>789633000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>41505</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>663697500</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>41512</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1154137500</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>41519</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>582627000</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>41526</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>610590000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>41533</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>712617000</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>41540</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>528454500</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
         <v>41547</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>1135297500</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
         <v>41554</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>866314500</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
         <v>41561</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>593839500</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
         <v>41568</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>819906000</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
         <v>41575</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>703044000</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
         <v>41582</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1671327000</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
         <v>41589</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>956175000</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
         <v>41596</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>1197067500</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
         <v>41603</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>693549000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
         <v>41610</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>956689500</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
         <v>41617</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>724608000</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
         <v>41624</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>733572000</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
         <v>41631</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>418750500</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
         <v>41638</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>294199500</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="2">
         <v>41645</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>440797500</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="2">
         <v>41652</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1133314500</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="2">
         <v>41659</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>484335000</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="2">
         <v>41666</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>537286500</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="2">
         <v>41673</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>502339500</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
         <v>41680</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>645624000</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
         <v>41687</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>769843500</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
         <v>41694</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>1471504500</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
         <v>41701</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>644160000</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
         <v>41708</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>612279000</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
         <v>41715</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>438915000</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
         <v>41722</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>679230000</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
         <v>41729</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>732045000</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="2">
         <v>41736</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>572721000</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="2">
         <v>41743</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>517369500</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="2">
         <v>41750</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>522756000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
         <v>41757</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>401826000</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="2">
         <v>41764</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>742722000</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
         <v>41771</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>450514500</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="2">
         <v>41778</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>384367500</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="2">
         <v>41785</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>301647000</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="2">
         <v>41792</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>286270500</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="2">
         <v>41799</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>297538500</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="2">
         <v>41806</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>707827500</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="2">
         <v>41813</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>486375000</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="2">
         <v>41820</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>335382000</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="2">
         <v>41827</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>390172500</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="2">
         <v>41834</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>388039500</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="2">
         <v>41841</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>239521500</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="2">
         <v>41848</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>517041000</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="2">
         <v>41855</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>497499000</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="2">
         <v>41862</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>441160500</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="2">
         <v>41869</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>299413500</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="2">
         <v>41876</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>306198000</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="2">
         <v>41883</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>542044500</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="2">
         <v>41890</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>313986000</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="2">
         <v>41897</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>606550500</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="2">
         <v>41904</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>393778500</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="2">
         <v>41911</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>441558000</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="2">
         <v>41918</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>562552500</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="2">
         <v>41925</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>652050000</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" s="2">
         <v>41932</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>280455000</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="2">
         <v>41939</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>480537000</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" s="2">
         <v>41946</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>561720000</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="2">
         <v>41953</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>461008500</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="2">
         <v>41960</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>412342500</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="2">
         <v>41967</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>180756000</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="2">
         <v>41974</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>445999500</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" s="2">
         <v>41981</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>597591000</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" s="2">
         <v>41988</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>531090000</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="2">
         <v>41995</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>209464500</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" s="2">
         <v>42002</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>191514000</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="2">
         <v>42009</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>340644000</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" s="2">
         <v>42016</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>461988000</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="2">
         <v>42023</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>243175500</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="2">
         <v>42030</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>235803000</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="2">
         <v>42037</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>285714000</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="2">
         <v>42044</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>607089000</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" s="2">
         <v>42051</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>267441000</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" s="2">
         <v>42058</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>440518500</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" s="2">
         <v>42065</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>422487000</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" s="2">
         <v>42072</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>403123500</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" s="2">
         <v>42079</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>421327500</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" s="2">
         <v>42086</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>371172000</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" s="2">
         <v>42093</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>358816500</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" s="2">
         <v>42100</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>464620500</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" s="2">
         <v>42107</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>192984000</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" s="2">
         <v>42114</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>310407000</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" s="2">
         <v>42121</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>463315500</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" s="2">
         <v>42128</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>444397500</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" s="2">
         <v>42135</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>373491000</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257" s="2">
         <v>42142</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>224650500</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258" s="2">
         <v>42149</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>215152500</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" s="2">
         <v>42156</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>178455000</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260" s="2">
         <v>42163</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>218235000</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261" s="2">
         <v>42170</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>223942500</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262" s="2">
         <v>42177</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>262977000</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263" s="2">
         <v>42184</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>237463500</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264" s="2">
         <v>42191</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>335896500</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265" s="2">
         <v>42198</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>202644000</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266" s="2">
         <v>42205</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>288838500</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" s="2">
         <v>42212</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>234559500</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268" s="2">
         <v>42219</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>462262500</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269" s="2">
         <v>42226</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>318492000</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270" s="2">
         <v>42233</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>397080000</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A271" s="2">
         <v>42240</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>480624000</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272" s="2">
         <v>42247</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>340023000</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273" s="2">
         <v>42254</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>173832000</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274" s="2">
         <v>42261</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>263856000</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" s="2">
         <v>42268</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>294105000</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276" s="2">
         <v>42275</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>337963500</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277" s="2">
         <v>42282</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>420310500</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278" s="2">
         <v>42289</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>289363500</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279" s="2">
         <v>42296</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>429301500</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280" s="2">
         <v>42303</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>238249500</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281" s="2">
         <v>42310</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>478933500</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282" s="2">
         <v>42317</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>272428500</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283" s="2">
         <v>42324</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>221866500</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284" s="2">
         <v>42331</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>164200500</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285" s="2">
         <v>42338</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>223327500</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286" s="2">
         <v>42345</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>213450000</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287" s="2">
         <v>42352</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>247329000</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A288" s="2">
         <v>42359</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>92665500</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A289" s="2">
         <v>42366</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>160807500</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290" s="2">
         <v>42373</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>314631000</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291" s="2">
         <v>42380</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>350685000</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292" s="2">
         <v>42387</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>242514000</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293" s="2">
         <v>42394</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>280878000</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294" s="2">
         <v>42401</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>492384000</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295" s="2">
         <v>42408</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>747889500</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296" s="2">
         <v>42415</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>273990000</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297" s="2">
         <v>42422</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>423838500</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298" s="2">
         <v>42429</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>410875500</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299" s="2">
         <v>42436</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>318784500</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300" s="2">
         <v>42443</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>288864000</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301" s="2">
         <v>42450</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>293002500</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302" s="2">
         <v>42457</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>539751000</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303" s="2">
         <v>42464</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>770244000</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304" s="2">
         <v>42471</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>416026500</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305" s="2">
         <v>42478</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>335886000</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A306" s="2">
         <v>42485</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>270490500</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307" s="2">
         <v>42492</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>506799000</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308" s="2">
         <v>42499</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>307233000</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309" s="2">
         <v>42506</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>409258500</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310" s="2">
         <v>42513</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>284487000</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A311" s="2">
         <v>42520</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>150502500</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312" s="2">
         <v>42527</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>374307000</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A313" s="2">
         <v>42534</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>243519000</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A314" s="2">
         <v>42541</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>734761500</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A315" s="2">
         <v>42548</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>444837000</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316" s="2">
         <v>42555</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>266730000</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317" s="2">
         <v>42562</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>277173000</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318" s="2">
         <v>42569</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>241561500</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319" s="2">
         <v>42576</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>244494000</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320" s="2">
         <v>42583</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>287860500</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321" s="2">
         <v>42590</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>157561500</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322" s="2">
         <v>42597</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>141937500</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323" s="2">
         <v>42604</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>201331500</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324" s="2">
         <v>42611</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>354483000</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325" s="2">
         <v>42618</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>227496000</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326" s="2">
         <v>42625</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>236161500</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327" s="2">
         <v>42632</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>189474000</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328" s="2">
         <v>42639</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>197539500</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329" s="2">
         <v>42646</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>294229500</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330" s="2">
         <v>42653</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>215698500</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331" s="2">
         <v>42660</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>378631500</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332" s="2">
         <v>42667</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>423048000</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333" s="2">
         <v>42674</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>357070500</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334" s="2">
         <v>42681</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>390744000</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A335" s="2">
         <v>42688</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>359790000</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A336" s="2">
         <v>42695</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>258336000</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A337" s="2">
         <v>42702</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>325264500</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A338" s="2">
         <v>42709</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>282634500</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A339" s="2">
         <v>42716</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>306453000</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A340" s="2">
         <v>42723</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>317496000</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A341" s="2">
         <v>42730</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>275787000</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A342" s="2">
         <v>42737</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>428646000</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A343" s="2">
         <v>42744</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>317602500</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A344" s="2">
         <v>42751</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>304846500</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A345" s="2">
         <v>42758</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>340341000</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A346" s="2">
         <v>42765</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>248437500</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A347" s="2">
         <v>42772</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>347703000</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A348" s="2">
         <v>42779</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>489856500</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A349" s="2">
         <v>42786</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>562777500</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350" s="2">
         <v>42793</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>429294000</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351" s="2">
         <v>42800</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>262287000</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352" s="2">
         <v>42807</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>443722500</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A353" s="2">
         <v>42814</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>353245500</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A354" s="2">
         <v>42821</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>380064000</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A355" s="2">
         <v>42828</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>630064500</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A356" s="2">
         <v>42835</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>430866000</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A357" s="2">
         <v>42842</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>325974000</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A358" s="2">
         <v>42849</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>367354500</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A359" s="2">
         <v>42856</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>655126500</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A360" s="2">
         <v>42863</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>469500000</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A361" s="2">
         <v>42870</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>432417000</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A362" s="2">
         <v>42877</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>397456500</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A363" s="2">
         <v>42884</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>464167500</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A364" s="2">
         <v>42891</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>803881500</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A365" s="2">
         <v>42898</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>784522500</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A366" s="2">
         <v>42905</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>493302000</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A367" s="2">
         <v>42912</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>509587500</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A368" s="2">
         <v>42919</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>852802500</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A369" s="2">
         <v>42926</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>749191500</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A370" s="2">
         <v>42933</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>490131000</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A371" s="2">
         <v>42940</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>504448500</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A372" s="2">
         <v>42947</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>791004000</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A373" s="2">
         <v>42954</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>481876500</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A374" s="2">
         <v>42961</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>321810000</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A375" s="2">
         <v>42968</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>357609000</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A376" s="2">
         <v>42975</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>275593500</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A377" s="2">
         <v>42982</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>231438000</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A378" s="2">
         <v>42989</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>456723000</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A379" s="2">
         <v>42996</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>470049000</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A380" s="2">
         <v>43003</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>468738000</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A381" s="2">
         <v>43010</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>481096500</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A382" s="2">
         <v>43017</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>399007500</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A383" s="2">
         <v>43024</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>354001500</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A384" s="2">
         <v>43031</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>462544500</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A385" s="2">
         <v>43038</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>706041000</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A386" s="2">
         <v>43045</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>398671500</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A387" s="2">
         <v>43052</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>581953500</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A388" s="2">
         <v>43059</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>355060500</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A389" s="2">
         <v>43066</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>403759500</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A390" s="2">
         <v>43073</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>388890000</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A391" s="2">
         <v>43080</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>534387000</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A392" s="2">
         <v>43087</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>402840000</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A393" s="2">
         <v>43094</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>257760000</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A394" s="2">
         <v>43101</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>351168000</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A395" s="2">
         <v>43108</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>491797500</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A396" s="2">
         <v>43115</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>362278500</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A397" s="2">
         <v>43122</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>423645000</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A398" s="2">
         <v>43129</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>353721000</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A399" s="2">
         <v>43136</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>596550000</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A400" s="2">
         <v>43143</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>394413000</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A401" s="2">
         <v>43150</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>300243000</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A402" s="2">
         <v>43157</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>407782500</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A403" s="2">
         <v>43164</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>332847000</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A404" s="2">
         <v>43171</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>523189500</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A405" s="2">
         <v>43178</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>447025500</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A406" s="2">
         <v>43185</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>876289500</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A407" s="2">
         <v>43192</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>1312447500</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A408" s="2">
         <v>43199</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>654877500</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A409" s="2">
         <v>43206</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>474220500</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A410" s="2">
         <v>43213</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>349693500</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A411" s="2">
         <v>43220</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>656185500</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A412" s="2">
         <v>43227</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>460002000</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A413" s="2">
         <v>43234</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>512287500</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A414" s="2">
         <v>43241</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>482479500</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A415" s="2">
         <v>43248</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>367506000</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A416" s="2">
         <v>43255</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>781662000</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A417" s="2">
         <v>43262</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>1002450000</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A418" s="2">
         <v>43269</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>771780000</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A419" s="2">
         <v>43276</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>564118500</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A420" s="2">
         <v>43283</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>860764500</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A421" s="2">
         <v>43290</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>503151000</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A422" s="2">
         <v>43297</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>472749000</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A423" s="2">
         <v>43304</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>569893500</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A424" s="2">
         <v>43311</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>883378500</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A425" s="2">
         <v>43318</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>1391206500</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A426" s="2">
         <v>43325</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>773613000</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A427" s="2">
         <v>43332</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>679056000</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A428" s="2">
         <v>43339</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>611514000</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A429" s="2">
         <v>43346</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>690660000</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A430" s="2">
         <v>43353</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>698622000</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A431" s="2">
         <v>43360</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>661948500</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A432" s="2">
         <v>43367</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>889900500</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A433" s="2">
         <v>43374</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>1039122000</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A434" s="2">
         <v>43381</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>805765500</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A435" s="2">
         <v>43388</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>587679000</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A436" s="2">
         <v>43395</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>1394289000</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A437" s="2">
         <v>43402</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>705676500</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A438" s="2">
         <v>43409</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>512368500</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A439" s="2">
         <v>43416</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>438934500</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A440" s="2">
         <v>43423</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>399045000</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A441" s="2">
         <v>43430</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>407817000</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A442" s="2">
         <v>43437</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>541831500</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A443" s="2">
         <v>43444</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>474792000</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A444" s="2">
         <v>43451</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>602053500</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A445" s="2">
         <v>43458</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>483556500</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A446" s="2">
         <v>43465</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>484803000</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A447" s="2">
         <v>43472</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>466321500</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A448" s="2">
         <v>43479</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>657346500</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A449" s="2">
         <v>43486</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>597877500</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A450" s="2">
         <v>43493</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>632218500</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A451" s="2">
         <v>43500</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>472473000</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A452" s="2">
         <v>43507</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>403419000</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A453" s="2">
         <v>43514</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>389404500</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A454" s="2">
         <v>43521</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>897375000</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A455" s="2">
         <v>43528</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>966886500</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A456" s="2">
         <v>43535</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>654450000</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A457" s="2">
         <v>43542</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>655237500</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A458" s="2">
         <v>43549</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>586657500</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A459" s="2">
         <v>43556</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>874015500</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A460" s="2">
         <v>43563</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>599364000</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A461" s="2">
         <v>43570</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>424714500</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A462" s="2">
         <v>43577</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>1170429000</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A463" s="2">
         <v>43584</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1181244000</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A464" s="2">
         <v>43591</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>612921000</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A465" s="2">
         <v>43598</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>759798000</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A466" s="2">
         <v>43605</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>1468485000</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A467" s="2">
         <v>43612</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>609220500</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A468" s="2">
         <v>43619</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>1149426000</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A469" s="2">
         <v>43626</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>795565500</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A470" s="2">
         <v>43633</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>775099500</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A471" s="2">
         <v>43640</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>504468000</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A472" s="2">
         <v>43647</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>581088000</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A473" s="2">
         <v>43654</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>568978500</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A474" s="2">
         <v>43661</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>610812000</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A475" s="2">
         <v>43668</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>830764500</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A476" s="2">
         <v>43675</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>614347500</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A477" s="2">
         <v>43682</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>398122500</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A478" s="2">
         <v>43689</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>484990500</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A479" s="2">
         <v>43696</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>484900500</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A480" s="2">
         <v>43703</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>422905500</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A481" s="2">
         <v>43710</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>340497000</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A482" s="2">
         <v>43717</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>504352500</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A483" s="2">
         <v>43724</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>358687500</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A484" s="2">
         <v>43731</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>744895500</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A485" s="2">
         <v>43738</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>611299500</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A486" s="2">
         <v>43745</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>575932500</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A487" s="2">
         <v>43752</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>507615000</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A488" s="2">
         <v>43759</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>1119138000</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A489" s="2">
         <v>43766</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>789709500</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A490" s="2">
         <v>43773</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>663117000</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A491" s="2">
         <v>43780</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>555601500</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A492" s="2">
         <v>43787</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>627463500</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A493" s="2">
         <v>43794</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>424621500</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A494" s="2">
         <v>43801</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>442773000</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A495" s="2">
         <v>43808</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>586260000</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A496" s="2">
         <v>43815</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>1104777000</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A497" s="2">
         <v>43822</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>629308500</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A498" s="2">
         <v>43829</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>752740500</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A499" s="2">
         <v>43836</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>1508389500</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A500" s="2">
         <v>43843</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>1623726000</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A501" s="2">
         <v>43850</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>1247656500</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A502" s="2">
         <v>43857</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>1318846500</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A503" s="2">
         <v>43864</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>3200578500</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A504" s="2">
         <v>43871</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1355883000</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A505" s="2">
         <v>43878</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>1106316000</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A506" s="2">
         <v>43885</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>1426024500</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A507" s="2">
         <v>43892</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>1268154000</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A508" s="2">
         <v>43899</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>1313100000</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A509" s="2">
         <v>43906</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>1901269500</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A510" s="2">
         <v>43913</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>1384957500</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A511" s="2">
         <v>43920</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1283149500</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A512" s="2">
         <v>43927</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>886914000</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A513" s="2">
         <v>43934</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>1656225000</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A514" s="2">
         <v>43941</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>1133548500</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A515" s="2">
         <v>43948</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1696846500</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A516" s="2">
         <v>43955</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1124493000</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A517" s="2">
         <v>43962</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1135389000</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A518" s="2">
         <v>43969</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>762805500</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A519" s="2">
         <v>43976</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>579889500</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A520" s="2">
         <v>43983</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>797313000</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A521" s="2">
         <v>43990</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>1152093000</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A522" s="2">
         <v>43997</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>871060500</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A523" s="2">
         <v>44004</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>626950500</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A524" s="2">
         <v>44011</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>847828500</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A525" s="2">
         <v>44018</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>1401391500</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A526" s="2">
         <v>44025</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1536031500</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A527" s="2">
         <v>44032</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1366722000</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A528" s="2">
         <v>44039</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>916702500</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A529" s="2">
         <v>44046</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>555912000</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A530" s="2">
         <v>44053</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1064706000</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A531" s="2">
         <v>44060</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>1365352500</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A532" s="2">
         <v>44067</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>1331041500</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A533" s="2">
         <v>44074</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>1506928800</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A534" s="2">
         <v>44081</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>1021738800</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A535" s="2">
         <v>44088</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>1247352300</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A536" s="2">
         <v>44095</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>1343704200</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A537" s="2">
         <v>44102</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>810768000</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A538" s="2">
         <v>44109</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>619030800</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A539" s="2">
         <v>44116</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>568748400</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A540" s="2">
         <v>44123</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>522074400</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A541" s="2">
         <v>44130</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>424631100</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A542" s="2">
         <v>44137</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>436909200</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A543" s="2">
         <v>44144</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>366303300</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A544" s="2">
         <v>44151</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>784374300</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A545" s="2">
         <v>44158</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>571200300</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A546" s="2">
         <v>44165</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>668506800</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A547" s="2">
         <v>44172</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>916272300</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A548" s="2">
         <v>44179</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1252812600</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A549" s="2">
         <v>44186</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>497399700</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A550" s="2">
         <v>44193</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>443055900</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A551" s="2">
         <v>44200</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>756413400</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A552" s="2">
         <v>44207</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>626786100</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A553" s="2">
         <v>44214</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>274861500</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A554" s="2">
         <v>44221</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>459023400</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A555" s="2">
         <v>44228</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>307381200</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A556" s="2">
         <v>44235</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>350779800</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A557" s="2">
         <v>44242</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>248142600</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A558" s="2">
         <v>44249</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>662270100</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A559" s="2">
         <v>44256</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>709177200</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A560" s="2">
         <v>44263</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>749261100</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A561" s="2">
         <v>44270</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>534067800</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A562" s="2">
         <v>44277</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>530631000</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A563" s="2">
         <v>44284</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>410115300</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A564" s="2">
         <v>44291</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>425356200</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A565" s="2">
         <v>44298</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>535902900</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A566" s="2">
         <v>44305</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>511413000</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A567" s="2">
         <v>44312</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>457051800</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A568" s="2">
         <v>44319</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>389814300</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A569" s="2">
         <v>44326</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>567827100</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A570" s="2">
         <v>44333</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>496953300</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A571" s="2">
         <v>44340</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>420932700</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A572" s="2">
         <v>44347</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>286609500</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A573" s="2">
         <v>44354</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>315919800</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A574" s="2">
         <v>44361</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>322783500</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A575" s="2">
         <v>44368</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>460649700</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A576" s="2">
         <v>44375</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>310870200</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A577" s="2">
         <v>44382</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>248970900</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A578" s="2">
         <v>44389</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>315344700</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A579" s="2">
         <v>44396</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>241344300</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A580" s="2">
         <v>44403</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>402622500</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A581" s="2">
         <v>44410</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>302343900</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A582" s="2">
         <v>44417</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>216416400</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A583" s="2">
         <v>44424</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>287710500</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A584" s="2">
         <v>44431</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>219125100</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A585" s="2">
         <v>44438</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>242061900</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A586" s="2">
         <v>44445</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>204284100</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A587" s="2">
         <v>44452</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>296888100</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A588" s="2">
         <v>44459</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>268605600</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A589" s="2">
         <v>44466</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>328147200</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A590" s="2">
         <v>44473</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>298449300</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A591" s="2">
         <v>44480</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>244536600</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A592" s="2">
         <v>44487</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>329948100</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A593" s="2">
         <v>44494</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>662775600</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A594" s="2">
         <v>44501</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>541323600</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A595" s="2">
         <v>44508</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>549971700</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A596" s="2">
         <v>44515</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>405913800</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A597" s="2">
         <v>44522</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>310455900</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A598" s="2">
         <v>44529</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>373556700</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A599" s="2">
         <v>44536</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>298756800</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A600" s="2">
         <v>44543</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>407779800</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A601" s="2">
         <v>44550</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>314345400</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A602" s="2">
         <v>44557</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>275398500</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A603" s="2">
         <v>44564</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>458800800</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A604" s="2">
         <v>44571</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>411751500</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A605" s="2">
         <v>44578</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>316090500</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A606" s="2">
         <v>44585</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>624927600</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A607" s="2">
         <v>44592</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>396848100</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A608" s="2">
         <v>44599</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>309755700</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A609" s="2">
         <v>44606</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>300017100</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A610" s="2">
         <v>44613</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>389934900</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A611" s="2">
         <v>44620</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>377040300</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A612" s="2">
         <v>44627</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>337762800</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A613" s="2">
         <v>44634</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>389019300</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A614" s="2">
         <v>44641</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>439478700</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A615" s="2">
         <v>44648</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>339241800</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A616" s="2">
         <v>44655</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>385920300</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A617" s="2">
         <v>44662</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>238876500</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A618" s="2">
         <v>44669</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>347387100</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A619" s="2">
         <v>44676</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>494512800</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A620" s="2">
         <v>44683</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>386556900</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A621" s="2">
         <v>44690</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>504900300</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A622" s="2">
         <v>44697</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>489416400</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A623" s="2">
         <v>44704</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>465433500</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A624" s="2">
         <v>44711</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>385029300</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A625" s="2">
         <v>44718</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>427251600</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A626" s="2">
         <v>44725</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>519920400</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A627" s="2">
         <v>44732</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>423873900</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A628" s="2">
         <v>44739</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>431527500</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A629" s="2">
         <v>44746</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>340219500</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A630" s="2">
         <v>44753</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>433367100</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A631" s="2">
         <v>44760</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>497796900</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A632" s="2">
         <v>44767</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>399040200</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A633" s="2">
         <v>44774</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>478140600</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A634" s="2">
         <v>44781</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>429969600</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A635" s="2">
         <v>44788</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>355157400</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A636" s="2">
         <v>44795</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>287481800</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A637" s="2">
         <v>44802</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>249690900</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A638" s="2">
         <v>44809</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>213940100</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A639" s="2">
         <v>44816</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>341416200</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A640" s="2">
         <v>44823</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>318723500</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A641" s="2">
         <v>44830</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>320014100</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A642" s="2">
         <v>44837</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>448139900</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A643" s="2">
         <v>44844</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>397406400</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A644" s="2">
         <v>44851</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>415404100</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A645" s="2">
         <v>44858</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>412758400</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A646" s="2">
         <v>44865</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>342474400</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A647" s="2">
         <v>44872</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>596889200</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A648" s="2">
         <v>44879</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>390472900</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A649" s="2">
         <v>44886</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>331544400</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A650" s="2">
         <v>44893</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>439140800</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A651" s="2">
         <v>44900</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>471983600</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A652" s="2">
         <v>44907</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>687706200</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A653" s="2">
         <v>44914</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>821451300</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A654" s="2">
         <v>44921</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>809414500</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A655" s="2">
         <v>44928</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>790689200</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A656" s="2">
         <v>44935</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>891852300</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A657" s="2">
         <v>44942</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>691307300</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A658" s="2">
         <v>44949</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>1095958300</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A659" s="2">
         <v>44956</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>1091608900</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A660" s="2">
         <v>44963</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>973057500</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A661" s="2">
         <v>44970</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>1013262600</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A662" s="2">
         <v>44977</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>660435200</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A663" s="2">
         <v>44984</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>806720000</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A664" s="2">
         <v>44991</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>789636400</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A665" s="2">
         <v>44998</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>711837700</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A666" s="2">
         <v>45005</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>693958500</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A667" s="2">
         <v>45012</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>623640500</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A668" s="2">
         <v>45019</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>553750100</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A669" s="2">
         <v>45026</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>617553500</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A670" s="2">
         <v>45033</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>668971700</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A671" s="2">
         <v>45040</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>664901000</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A672" s="2">
         <v>45047</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>559718500</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A673" s="2">
         <v>45054</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>582794600</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A674" s="2">
         <v>45061</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>575071900</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A675" s="2">
         <v>45068</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>685490800</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A676" s="2">
         <v>45075</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>591958700</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A677" s="2">
         <v>45082</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>848497600</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A678" s="2">
         <v>45089</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>811384500</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A679" s="2">
         <v>45096</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>721745000</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A680" s="2">
         <v>45103</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>748633800</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A681" s="2">
         <v>45110</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>485428100</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A682" s="2">
         <v>45117</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>539813800</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A683" s="2">
         <v>45124</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>722999700</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A684" s="2">
         <v>45131</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>560265300</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A685" s="2">
         <v>45138</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>466610100</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A686" s="2">
         <v>45145</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>517873600</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A687" s="2">
         <v>45152</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>556272400</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A688" s="2">
         <v>45159</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>573612700</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A689" s="2">
         <v>45166</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>605113000</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A690" s="2">
         <v>45173</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>480110000</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A691" s="2">
         <v>45180</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>663743600</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A692" s="2">
         <v>45187</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>575237500</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A693" s="2">
         <v>45194</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>588809000</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A694" s="2">
         <v>45201</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>592798300</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A695" s="2">
         <v>45208</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>541322100</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A696" s="2">
         <v>45215</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>616410700</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A697" s="2">
         <v>45222</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>585973400</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A698" s="2">
         <v>45229</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>621700600</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A699" s="2">
         <v>45236</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>613925200</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A700" s="2">
         <v>45243</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>719922800</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A701" s="2">
         <v>45250</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>421683900</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A702" s="2">
         <v>45257</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>649667900</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A703" s="2">
         <v>45264</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>578776200</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A704" s="2">
         <v>45271</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>636290500</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A705" s="2">
         <v>45278</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>551215200</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A706" s="2">
         <v>45285</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>407898300</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A707" s="2">
         <v>45292</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>420855000</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A708" s="2">
         <v>45299</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>502418200</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A709" s="2">
         <v>45306</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>429375100</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A710" s="2">
         <v>45313</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>653348300</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A711" s="2">
         <v>45320</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>540672800</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A712" s="2">
         <v>45327</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>536015900</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A713" s="2">
         <v>45334</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>495639600</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A714" s="2">
         <v>45341</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>379627500</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A715" s="2">
         <v>45348</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>488348800</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A716" s="2">
         <v>45355</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>549590200</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A717" s="2">
         <v>45362</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>502780200</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A718" s="2">
         <v>45369</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>418091100</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A719" s="2">
         <v>45376</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>346873600</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A720" s="2">
         <v>45383</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>547482400</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A721" s="2">
         <v>45390</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>451146100</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A722" s="2">
         <v>45397</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>462858300</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A723" s="2">
         <v>45404</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>649063900</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A724" s="2">
         <v>45411</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>628370700</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A725" s="2">
         <v>45418</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>377983200</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A726" s="2">
         <v>45425</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>370347300</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A727" s="2">
         <v>45432</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>402867400</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A728" s="2">
         <v>45439</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>259452200</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A729" s="2">
         <v>45446</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>312710900</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A730" s="2">
         <v>45453</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>406948200</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A731" s="2">
         <v>45460</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>296598800</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A732" s="2">
         <v>45467</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>388819500</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A733" s="2">
         <v>45474</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>661802000</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A734" s="2">
         <v>45481</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>823613000</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A735" s="2">
         <v>45488</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>587103100</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A736" s="2">
         <v>45495</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>576337100</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A737" s="2">
         <v>45502</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>464001100</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A738" s="2">
         <v>45509</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>368934700</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A739" s="2">
         <v>45516</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>389155900</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A740" s="2">
         <v>45523</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>381622100</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A741" s="2">
         <v>45530</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>311918400</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A742" s="2">
         <v>45537</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>388898000</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A743" s="2">
         <v>45544</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>361293200</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A744" s="2">
         <v>45551</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>401668500</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A745" s="2">
         <v>45558</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>378582800</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A746" s="2">
         <v>45565</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>429389600</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A747" s="2">
         <v>45572</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>416422000</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A748" s="2">
         <v>45579</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>299317200</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A749" s="2">
         <v>45586</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>537640400</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A750" s="2">
         <v>45593</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>366289100</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A751" s="2">
         <v>45600</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>625405600</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A752" s="2">
         <v>45607</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>726819600</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A753" s="2">
         <v>45614</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>428431200</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A754" s="2">
         <v>45621</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>253250800</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A755" s="2">
         <v>45628</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>349924000</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A756" s="2">
         <v>45635</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>474962800</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A757" s="2">
         <v>45642</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>645429900</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A758" s="2">
         <v>45649</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>291283100</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A759" s="2">
         <v>45656</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>346900100</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A760" s="2">
         <v>45663</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>296542100</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A761" s="2">
         <v>45670</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>396847600</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A762" s="2">
         <v>45677</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>255401900</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A763" s="2">
         <v>45684</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>356446300</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A764" s="2">
         <v>45691</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>356244100</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A765" s="2">
         <v>45698</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>459159800</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A766" s="2">
         <v>45705</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>238750100</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A767" s="2">
         <v>45712</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>527844600</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A768" s="2">
         <v>45719</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>537122100</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A769" s="2">
         <v>45726</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>721244800</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A770" s="2">
         <v>45733</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>567129000</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A771" s="2">
         <v>45740</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>759452700</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A772" s="2">
         <v>45747</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>810687300</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A773" s="2">
         <v>45754</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>885161400</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A774" s="2">
         <v>45761</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>375513000</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A775" s="2">
         <v>45768</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>631033300</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A776" s="2">
         <v>45775</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>603713200</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A777" s="2">
         <v>45782</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>472854500</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A778" s="2">
         <v>45789</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>580594900</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A779" s="2">
         <v>45796</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>504708400</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A780" s="2">
         <v>45803</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>423113400</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A781" s="2">
         <v>45810</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>732357900</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A782" s="2">
         <v>45817</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>648868600</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A783" s="2">
         <v>45824</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>376034300</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A784" s="2">
         <v>45831</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>594806000</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A785" s="2">
         <v>45838</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>399306800</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A786" s="2">
         <v>45845</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>493613100</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A787" s="2">
         <v>45852</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>421062400</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A788" s="2">
         <v>45859</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>550886000</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A789" s="2">
         <v>45866</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>458356900</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A790" s="2">
         <v>45873</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>373027800</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A791" s="2">
         <v>45880</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>403001700</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A792" s="2">
         <v>45887</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>360155100</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A793" s="2">
         <v>45894</v>
       </c>
